--- a/codebook-PSID.xlsx
+++ b/codebook-PSID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/y_cai2_uu_nl/Documents/4_2_2_Formal reproduction/From github 230221/Flexibility_SES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_ACAF8269E7F8B87C645A62153AD066C2BEEDC6E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF39D920-D59B-49EA-B56D-C2741DE1255E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_ACAF8269E7F8B87C645A62153AD066C2BEEDC6E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{763D38A8-AF36-459C-B6BE-7DBCE1C38F29}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SES" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="OLE_LINK1" localSheetId="3">工作表1!$A$1</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -12113,24 +12114,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E82" zoomScale="159" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="E38" zoomScale="159" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="10.83203125" style="6"/>
-    <col min="3" max="3" width="20.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="9" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.875" style="9"/>
+    <col min="2" max="2" width="10.875" style="6"/>
+    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="7"/>
+    <col min="6" max="6" width="16.875" style="7" customWidth="1"/>
     <col min="7" max="7" width="40.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.375" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="7" customWidth="1"/>
     <col min="10" max="10" width="5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="16.375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="19.625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -12794,7 +12796,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13" customHeight="1">
+    <row r="16" spans="1:19" ht="12.95" customHeight="1">
       <c r="A16" s="30" t="s">
         <v>2218</v>
       </c>
@@ -12845,7 +12847,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="13" customHeight="1">
+    <row r="17" spans="1:18" ht="12.95" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -12890,7 +12892,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="13" customHeight="1">
+    <row r="18" spans="1:18" ht="12.95" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -14084,7 +14086,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13" customHeight="1">
+    <row r="44" spans="1:18" ht="12.95" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="31" t="s">
         <v>315</v>
@@ -29740,7 +29742,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="419" spans="1:18" ht="13" customHeight="1">
+    <row r="419" spans="1:18" ht="12.95" customHeight="1">
       <c r="A419" s="30"/>
       <c r="B419" s="31" t="s">
         <v>1985</v>
@@ -29792,7 +29794,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="420" spans="1:18" s="21" customFormat="1" ht="13" customHeight="1">
+    <row r="420" spans="1:18" s="21" customFormat="1" ht="12.95" customHeight="1">
       <c r="A420" s="20"/>
       <c r="B420" s="31" t="s">
         <v>3147</v>
@@ -30378,7 +30380,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="433" spans="3:14" ht="15.5">
+    <row r="433" spans="3:14" ht="15.75">
       <c r="C433" s="28" t="s">
         <v>3239</v>
       </c>
@@ -30554,13 +30556,13 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="9"/>
+    <col min="1" max="2" width="10.875" style="9"/>
     <col min="3" max="3" width="17" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="11"/>
-    <col min="5" max="5" width="24.83203125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="10.875" style="11"/>
+    <col min="5" max="5" width="24.875" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -32065,11 +32067,11 @@
       <selection activeCell="D407" sqref="D407:D484"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="24.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="11"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37619,12 +37621,12 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -37721,7 +37723,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31">
+    <row r="8" spans="1:4">
       <c r="A8" s="25" t="s">
         <v>3221</v>
       </c>
@@ -37735,7 +37737,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31">
+    <row r="9" spans="1:4" ht="31.5">
       <c r="A9" s="25" t="s">
         <v>3224</v>
       </c>
@@ -37763,7 +37765,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" thickBot="1">
+    <row r="11" spans="1:4" ht="16.5" thickBot="1">
       <c r="A11" s="38"/>
       <c r="B11" s="26" t="s">
         <v>3232</v>
